--- a/biology/Botanique/Square_de_la_Place-Pasdeloup/Square_de_la_Place-Pasdeloup.xlsx
+++ b/biology/Botanique/Square_de_la_Place-Pasdeloup/Square_de_la_Place-Pasdeloup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square de la Place-Pasdeloup est un espace vert situé sur la place Pasdeloup dans le 11e arrondissement de Paris.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se situe le long du boulevard des Filles-du-Calvaire, juste sur la droite du Cirque d'Hiver dans le quartier de la Folie-Méricourt. Il a une superficie réduite, il s'agit du square le plus petit de l'arrondissement en superficie, après le jardinet du Docteur-Antoine-Béclère et le square Olga-Bancic. Au centre du square se trouve la fontaine Dejean érigée en 1906 par l'architecte Jean Camille Formigé et le sculpteur Charles Louis Malric (1872-1942). Entre des platanes d'Orient sont disposées des aires de jeux pour enfants.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom provient de celui de la place éponyme, nommée en 1897 en hommage à Jules Pasdeloup (1819-1881), compositeur français et fondateur des Concerts populaires, une société musicale destinée à un public jusqu'alors exclu des soirées musicales. Il installe ses concerts dominicaux sous la vaste rotonde du cirque d'hiver de Paris.
 </t>
@@ -574,9 +590,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fin 2022 sont entrepris des travaux afin de « l’ouvrir sur l’espace public » et « insérer le nouveau parvis au sein du contexte urbain »[1],[2]. Ces transformations amènent certaines critiques quant au risque de dépérissement de certains arbres[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fin 2022 sont entrepris des travaux afin de « l’ouvrir sur l’espace public » et « insérer le nouveau parvis au sein du contexte urbain »,. Ces transformations amènent certaines critiques quant au risque de dépérissement de certains arbres.
 </t>
         </is>
       </c>
